--- a/Шаблоны и категории.xlsx
+++ b/Шаблоны и категории.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mufazalov_AA\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Шаблоны" sheetId="1" r:id="rId1"/>
     <sheet name="Категории" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1012">
   <si>
     <t>Категория</t>
   </si>
@@ -4296,6 +4292,9 @@
   </si>
   <si>
     <t>Выбор места/места+</t>
+  </si>
+  <si>
+    <t>Приветствие</t>
   </si>
 </sst>
 </file>
@@ -4605,7 +4604,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4617,9 +4616,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4647,7 +4646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4661,7 +4660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4675,7 +4674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4731,7 +4730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4745,7 +4744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -4815,7 +4814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -4871,7 +4870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -4899,7 +4898,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -4941,7 +4940,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4983,7 +4982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -5011,7 +5010,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -5025,7 +5024,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -5039,7 +5038,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -5053,7 +5052,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -5067,7 +5066,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -5109,7 +5108,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -5123,7 +5122,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -5151,7 +5150,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>105</v>
       </c>
@@ -5221,7 +5220,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -5263,7 +5262,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5277,7 +5276,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>88</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -5305,7 +5304,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>125</v>
       </c>
@@ -5319,7 +5318,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -5333,7 +5332,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -5347,7 +5346,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -5361,7 +5360,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -5375,7 +5374,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -5403,7 +5402,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -5431,7 +5430,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -5487,7 +5486,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -5501,7 +5500,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -5515,7 +5514,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -5557,7 +5556,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -5599,7 +5598,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -5641,7 +5640,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -5655,7 +5654,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>192</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>140</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -5739,7 +5738,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -5753,7 +5752,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -5851,7 +5850,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -5879,7 +5878,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>136</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>136</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>84</v>
       </c>
@@ -5977,7 +5976,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>84</v>
       </c>
@@ -5991,7 +5990,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>75</v>
       </c>
@@ -6005,7 +6004,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>241</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -6033,7 +6032,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>192</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>140</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -6075,7 +6074,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>84</v>
       </c>
@@ -6103,7 +6102,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -6131,7 +6130,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>84</v>
       </c>
@@ -6145,7 +6144,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>28</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>88</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>28</v>
       </c>
@@ -6187,7 +6186,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>84</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -6215,7 +6214,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>136</v>
       </c>
@@ -6229,7 +6228,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>136</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -6257,7 +6256,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>136</v>
       </c>
@@ -6285,7 +6284,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -6299,7 +6298,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>88</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -6327,7 +6326,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -6355,7 +6354,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -6383,7 +6382,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -6411,7 +6410,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>136</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>95</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -6453,7 +6452,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>75</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>192</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>84</v>
       </c>
@@ -6495,7 +6494,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>75</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>105</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -6537,7 +6536,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -6551,7 +6550,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>88</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>84</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>84</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -6635,7 +6634,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>75</v>
       </c>
@@ -6649,7 +6648,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>88</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>105</v>
       </c>
@@ -6691,7 +6690,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>88</v>
       </c>
@@ -6705,7 +6704,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>105</v>
       </c>
@@ -6719,7 +6718,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>88</v>
       </c>
@@ -6733,7 +6732,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -6761,7 +6760,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>88</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>95</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>105</v>
       </c>
@@ -6803,7 +6802,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>95</v>
       </c>
@@ -6817,7 +6816,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>75</v>
       </c>
@@ -6845,7 +6844,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>241</v>
       </c>
@@ -6859,7 +6858,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>122</v>
       </c>
@@ -6873,7 +6872,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>125</v>
       </c>
@@ -6887,7 +6886,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>192</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>192</v>
       </c>
@@ -6943,7 +6942,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>75</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>136</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>140</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -6999,7 +6998,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>84</v>
       </c>
@@ -7041,7 +7040,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>152</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>28</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -7083,7 +7082,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>28</v>
       </c>
@@ -7097,7 +7096,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>28</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>84</v>
       </c>
@@ -7125,7 +7124,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>84</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>136</v>
       </c>
@@ -7153,7 +7152,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>88</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>88</v>
       </c>
@@ -7181,7 +7180,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>75</v>
       </c>
@@ -7209,7 +7208,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>28</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>28</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>75</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -7293,7 +7292,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>28</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -7335,7 +7334,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>84</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>95</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>122</v>
       </c>
@@ -7377,7 +7376,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -7391,7 +7390,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>192</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>75</v>
       </c>
@@ -7419,7 +7418,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>95</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>140</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>28</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>75</v>
       </c>
@@ -7475,7 +7474,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>84</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>24</v>
       </c>
@@ -7503,7 +7502,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -7517,7 +7516,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -7531,7 +7530,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>24</v>
       </c>
@@ -7545,7 +7544,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>24</v>
       </c>
@@ -7559,7 +7558,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>241</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>24</v>
       </c>
@@ -7587,7 +7586,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>95</v>
       </c>
@@ -7601,7 +7600,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>105</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>84</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>88</v>
       </c>
@@ -7643,7 +7642,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>241</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>122</v>
       </c>
@@ -7671,7 +7670,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>192</v>
       </c>
@@ -7685,7 +7684,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>84</v>
       </c>
@@ -7713,7 +7712,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>95</v>
       </c>
@@ -7727,7 +7726,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>75</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>140</v>
       </c>
@@ -7755,7 +7754,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -7769,7 +7768,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>152</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>136</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>28</v>
       </c>
@@ -7825,7 +7824,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -7839,7 +7838,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>152</v>
       </c>
@@ -7853,7 +7852,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>84</v>
       </c>
@@ -7867,7 +7866,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>24</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>241</v>
       </c>
@@ -7895,7 +7894,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>122</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>88</v>
       </c>
@@ -7923,7 +7922,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>95</v>
       </c>
@@ -7937,7 +7936,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>122</v>
       </c>
@@ -7951,7 +7950,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>95</v>
       </c>
@@ -7965,7 +7964,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -7979,7 +7978,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -7993,7 +7992,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -8007,7 +8006,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>192</v>
       </c>
@@ -8021,7 +8020,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>95</v>
       </c>
@@ -8035,7 +8034,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>84</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>122</v>
       </c>
@@ -8063,7 +8062,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>241</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>152</v>
       </c>
@@ -8091,7 +8090,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>28</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>4</v>
       </c>
@@ -8119,7 +8118,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>122</v>
       </c>
@@ -8133,7 +8132,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -8147,7 +8146,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>241</v>
       </c>
@@ -8161,7 +8160,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>14</v>
       </c>
@@ -8175,7 +8174,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>75</v>
       </c>
@@ -8189,7 +8188,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>84</v>
       </c>
@@ -8203,7 +8202,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>125</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>125</v>
       </c>
@@ -8231,7 +8230,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>105</v>
       </c>
@@ -8245,7 +8244,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>4</v>
       </c>
@@ -8259,7 +8258,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>14</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>14</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>88</v>
       </c>
@@ -8301,7 +8300,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>75</v>
       </c>
@@ -8315,7 +8314,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>122</v>
       </c>
@@ -8329,7 +8328,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -8343,7 +8342,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>95</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -8371,7 +8370,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>4</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>95</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>152</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>28</v>
       </c>
@@ -8427,7 +8426,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>28</v>
       </c>
@@ -8441,7 +8440,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>84</v>
       </c>
@@ -8469,7 +8468,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>28</v>
       </c>
@@ -8483,7 +8482,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>125</v>
       </c>
@@ -8497,7 +8496,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>24</v>
       </c>
@@ -8511,7 +8510,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>125</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>84</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -8553,7 +8552,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>88</v>
       </c>
@@ -8567,7 +8566,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>84</v>
       </c>
@@ -8581,7 +8580,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>75</v>
       </c>
@@ -8595,7 +8594,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>75</v>
       </c>
@@ -8609,7 +8608,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>95</v>
       </c>
@@ -8623,7 +8622,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -8637,7 +8636,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>28</v>
       </c>
@@ -8651,7 +8650,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>84</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>105</v>
       </c>
@@ -8679,7 +8678,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>75</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>88</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>95</v>
       </c>
@@ -8721,7 +8720,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>125</v>
       </c>
@@ -8735,7 +8734,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>28</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>28</v>
       </c>
@@ -8763,7 +8762,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -8777,7 +8776,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>24</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>88</v>
       </c>
@@ -8805,7 +8804,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>84</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>88</v>
       </c>
@@ -8833,7 +8832,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>125</v>
       </c>
@@ -8847,7 +8846,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>105</v>
       </c>
@@ -8861,7 +8860,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>28</v>
       </c>
@@ -8875,7 +8874,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>95</v>
       </c>
@@ -8889,7 +8888,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>24</v>
       </c>
@@ -8903,7 +8902,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>125</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>125</v>
       </c>
@@ -8931,7 +8930,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>105</v>
       </c>
@@ -8945,7 +8944,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>88</v>
       </c>
@@ -8959,7 +8958,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>88</v>
       </c>
@@ -8973,7 +8972,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>95</v>
       </c>
@@ -8987,7 +8986,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>4</v>
       </c>
@@ -9001,7 +9000,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>84</v>
       </c>
@@ -9015,7 +9014,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>75</v>
       </c>
@@ -9029,7 +9028,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>88</v>
       </c>
@@ -9043,7 +9042,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>88</v>
       </c>
@@ -9057,7 +9056,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>122</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>95</v>
       </c>
@@ -9085,7 +9084,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>28</v>
       </c>
@@ -9099,7 +9098,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>95</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>88</v>
       </c>
@@ -9127,7 +9126,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>75</v>
       </c>
@@ -9141,7 +9140,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>75</v>
       </c>
@@ -9155,7 +9154,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>75</v>
       </c>
@@ -9169,7 +9168,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>136</v>
       </c>
@@ -9183,7 +9182,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>88</v>
       </c>
@@ -9197,7 +9196,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -9211,7 +9210,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>122</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>28</v>
       </c>
@@ -9239,7 +9238,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>28</v>
       </c>
@@ -9253,7 +9252,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>4</v>
       </c>
@@ -9267,7 +9266,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>24</v>
       </c>
@@ -9281,7 +9280,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>88</v>
       </c>
@@ -9295,7 +9294,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>75</v>
       </c>
@@ -9309,7 +9308,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>88</v>
       </c>
@@ -9323,7 +9322,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>4</v>
       </c>
@@ -9337,7 +9336,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>24</v>
       </c>
@@ -9351,7 +9350,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>4</v>
       </c>
@@ -9365,7 +9364,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>693</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>4</v>
       </c>
@@ -9393,7 +9392,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>4</v>
       </c>
@@ -9407,7 +9406,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -9421,7 +9420,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>75</v>
       </c>
@@ -9435,7 +9434,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>88</v>
       </c>
@@ -9449,7 +9448,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>28</v>
       </c>
@@ -9463,7 +9462,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>4</v>
       </c>
@@ -9477,7 +9476,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>4</v>
       </c>
@@ -9491,7 +9490,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>4</v>
       </c>
@@ -9505,7 +9504,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -9519,7 +9518,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -9533,7 +9532,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>88</v>
       </c>
@@ -9547,7 +9546,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>75</v>
       </c>
@@ -9561,7 +9560,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -9575,7 +9574,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>84</v>
       </c>
@@ -9589,7 +9588,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>84</v>
       </c>
@@ -9603,7 +9602,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>84</v>
       </c>
@@ -9631,7 +9630,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -9645,7 +9644,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>84</v>
       </c>
@@ -9659,7 +9658,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -9673,7 +9672,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>75</v>
       </c>
@@ -9687,7 +9686,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -9701,7 +9700,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>84</v>
       </c>
@@ -9715,7 +9714,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>4</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>84</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>88</v>
       </c>
@@ -9757,7 +9756,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>75</v>
       </c>
@@ -9771,7 +9770,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>84</v>
       </c>
@@ -9785,7 +9784,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>84</v>
       </c>
@@ -9799,7 +9798,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>75</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>4</v>
       </c>
@@ -9827,7 +9826,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>75</v>
       </c>
@@ -9841,7 +9840,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>84</v>
       </c>
@@ -9855,7 +9854,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>4</v>
       </c>
@@ -9869,7 +9868,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>75</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>4</v>
       </c>
@@ -9897,7 +9896,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -9911,7 +9910,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>75</v>
       </c>
@@ -9925,7 +9924,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>4</v>
       </c>
@@ -9939,7 +9938,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>4</v>
       </c>
@@ -9953,7 +9952,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>4</v>
       </c>
@@ -9967,7 +9966,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>75</v>
       </c>
@@ -9981,7 +9980,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>4</v>
       </c>
@@ -9995,7 +9994,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>24</v>
       </c>
@@ -10009,7 +10008,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>75</v>
       </c>
@@ -10023,7 +10022,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>75</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>88</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>75</v>
       </c>
@@ -10065,7 +10064,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>75</v>
       </c>
@@ -10079,7 +10078,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>75</v>
       </c>
@@ -10093,7 +10092,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>75</v>
       </c>
@@ -10107,7 +10106,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>75</v>
       </c>
@@ -10121,7 +10120,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>105</v>
       </c>
@@ -10135,7 +10134,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>95</v>
       </c>
@@ -10149,7 +10148,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>88</v>
       </c>
@@ -10163,7 +10162,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>84</v>
       </c>
@@ -10177,7 +10176,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>88</v>
       </c>
@@ -10191,7 +10190,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>84</v>
       </c>
@@ -10205,7 +10204,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>84</v>
       </c>
@@ -10219,7 +10218,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>125</v>
       </c>
@@ -10233,7 +10232,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>4</v>
       </c>
@@ -10247,7 +10246,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>14</v>
       </c>
@@ -10261,7 +10260,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>14</v>
       </c>
@@ -10275,7 +10274,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>192</v>
       </c>
@@ -10289,7 +10288,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>192</v>
       </c>
@@ -10303,7 +10302,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>88</v>
       </c>
@@ -10317,7 +10316,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>192</v>
       </c>
@@ -10331,7 +10330,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>192</v>
       </c>
@@ -10345,7 +10344,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>105</v>
       </c>
@@ -10359,7 +10358,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>693</v>
       </c>
@@ -10373,7 +10372,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>693</v>
       </c>
@@ -10387,7 +10386,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>693</v>
       </c>
@@ -10401,7 +10400,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>693</v>
       </c>
@@ -10415,7 +10414,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>693</v>
       </c>
@@ -10429,7 +10428,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>693</v>
       </c>
@@ -10443,7 +10442,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>693</v>
       </c>
@@ -10457,7 +10456,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>693</v>
       </c>
@@ -10471,7 +10470,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>693</v>
       </c>
@@ -10485,7 +10484,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>693</v>
       </c>
@@ -10499,7 +10498,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>693</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>4</v>
       </c>
@@ -10527,7 +10526,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>4</v>
       </c>
@@ -10541,7 +10540,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>693</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>693</v>
       </c>
@@ -10569,7 +10568,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>693</v>
       </c>
@@ -10583,7 +10582,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>4</v>
       </c>
@@ -10597,7 +10596,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>14</v>
       </c>
@@ -10611,7 +10610,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>88</v>
       </c>
@@ -10625,7 +10624,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>4</v>
       </c>
@@ -10639,7 +10638,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>88</v>
       </c>
@@ -10653,7 +10652,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>84</v>
       </c>
@@ -10667,7 +10666,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>84</v>
       </c>
@@ -10681,7 +10680,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>95</v>
       </c>
@@ -10695,7 +10694,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>95</v>
       </c>
@@ -10709,7 +10708,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>4</v>
       </c>
@@ -10723,7 +10722,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>4</v>
       </c>
@@ -10737,7 +10736,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>122</v>
       </c>
@@ -10751,7 +10750,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>14</v>
       </c>
@@ -10765,7 +10764,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>95</v>
       </c>
@@ -10779,7 +10778,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>4</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>136</v>
       </c>
@@ -10807,7 +10806,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>75</v>
       </c>
@@ -10821,7 +10820,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>28</v>
       </c>
@@ -10835,7 +10834,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>4</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>4</v>
       </c>
@@ -10863,7 +10862,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>14</v>
       </c>
@@ -10877,7 +10876,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>14</v>
       </c>
@@ -10891,7 +10890,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>28</v>
       </c>
@@ -10905,7 +10904,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>28</v>
       </c>
@@ -10919,7 +10918,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>28</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>28</v>
       </c>
@@ -10947,7 +10946,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>4</v>
       </c>
@@ -10961,7 +10960,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>122</v>
       </c>
@@ -10975,7 +10974,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>84</v>
       </c>
@@ -10989,7 +10988,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>4</v>
       </c>
@@ -11003,7 +11002,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>136</v>
       </c>
@@ -11017,7 +11016,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>14</v>
       </c>
@@ -11031,7 +11030,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>84</v>
       </c>
@@ -11045,7 +11044,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>24</v>
       </c>
@@ -11059,7 +11058,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>24</v>
       </c>
@@ -11073,7 +11072,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>24</v>
       </c>
@@ -11087,7 +11086,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>105</v>
       </c>
@@ -11101,7 +11100,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>105</v>
       </c>
@@ -11115,7 +11114,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>95</v>
       </c>
@@ -11129,7 +11128,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>136</v>
       </c>
@@ -11143,7 +11142,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>4</v>
       </c>
@@ -11157,7 +11156,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>136</v>
       </c>
@@ -11171,7 +11170,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>136</v>
       </c>
@@ -11185,7 +11184,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>88</v>
       </c>
@@ -11208,17 +11207,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11226,337 +11225,337 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>1010</v>
       </c>
@@ -11565,4 +11564,284 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>